--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/White-chinned Petrel_South Georgia.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/White-chinned Petrel_South Georgia.xlsx
@@ -4284,13 +4284,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A01A4F3A-3E94-49E5-9FD1-988428C440B5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E9FCD86-36B8-4F5D-B166-E6DD604CFE5B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D45413C-137C-475C-95A1-E819405EC45D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3810233C-C981-4572-ACD4-96EC3B4FCEC6}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9898A2FF-EAF7-4AF9-93AD-32BE2ACDCC0D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A836FAC4-9E04-476A-9708-ABEE8306D9D4}"/>
 </file>